--- a/data_year/zb/科技/按登记注册类型和行业分规模以上工业企业研究与试验发展(研究与试验发展)活动情况/按行业分规模以上工业企业研究与试验发展全时当量.xlsx
+++ b/data_year/zb/科技/按登记注册类型和行业分规模以上工业企业研究与试验发展(研究与试验发展)活动情况/按行业分规模以上工业企业研究与试验发展全时当量.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM14"/>
+  <dimension ref="A1:AM12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -628,1190 +628,1152 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>146529.3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>220087.3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>61605.2</v>
+      </c>
       <c r="E2" t="n">
-        <v>542000</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="inlineStr"/>
+        <v>1939074.7</v>
+      </c>
+      <c r="F2" t="n">
+        <v>25154</v>
+      </c>
+      <c r="G2" t="n">
+        <v>132035.9</v>
+      </c>
+      <c r="H2" t="n">
+        <v>14445.4</v>
+      </c>
+      <c r="I2" t="n">
+        <v>93466.8</v>
+      </c>
+      <c r="J2" t="n">
+        <v>8156</v>
+      </c>
+      <c r="K2" t="n">
+        <v>28476.9</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4960.1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>12360.4</v>
+      </c>
+      <c r="N2" t="n">
+        <v>7862.5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>44745.5</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3147.5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4633.8</v>
+      </c>
+      <c r="R2" t="n">
+        <v>18188.9</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1163.4</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3483.2</v>
+      </c>
+      <c r="U2" t="n">
+        <v>50763.3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>442.4</v>
+      </c>
+      <c r="W2" t="n">
+        <v>21344.4</v>
+      </c>
+      <c r="X2" t="n">
+        <v>205275.2</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>7960.1</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>13638.3</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>32371.8</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>50862.6</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>17247.5</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>318017.5</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>154694.2</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>15257.8</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>40167.3</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>53107.1</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>3404.8</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>19563.5</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>20013.1</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>81787.89999999999</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>1942.3</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>156516.4</v>
+      </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>1229998.67</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>2246179</v>
+      </c>
+      <c r="F3" t="n">
+        <v>30426</v>
+      </c>
+      <c r="G3" t="n">
+        <v>150192.2</v>
+      </c>
+      <c r="H3" t="n">
+        <v>14805.5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>106684.7</v>
+      </c>
+      <c r="J3" t="n">
+        <v>9363.799999999999</v>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>7599.3</v>
+      </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
+      <c r="O3" t="n">
+        <v>55168.6</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3686.5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>6765.3</v>
+      </c>
       <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
+      <c r="S3" t="n">
+        <v>2045.4</v>
+      </c>
+      <c r="T3" t="n">
+        <v>4125.8</v>
+      </c>
+      <c r="U3" t="n">
+        <v>46917</v>
+      </c>
+      <c r="V3" t="n">
+        <v>566.8</v>
+      </c>
+      <c r="W3" t="n">
+        <v>25338.7</v>
+      </c>
+      <c r="X3" t="n">
+        <v>225982.8</v>
+      </c>
       <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
+      <c r="Z3" t="n">
+        <v>15550.1</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>24027.3</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>48352.6</v>
+      </c>
       <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
+      <c r="AD3" t="n">
+        <v>380497.3</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>173046.2</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>17970.4</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>65665.39999999999</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>59216</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>2791</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>23470.7</v>
+      </c>
       <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr"/>
-      <c r="AM3" t="inlineStr"/>
+      <c r="AL3" t="n">
+        <v>100752.9</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>2270.3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>178461.3</v>
+      </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>1447000</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+        <v>2493957.7</v>
+      </c>
+      <c r="F4" t="n">
+        <v>38161.8</v>
+      </c>
+      <c r="G4" t="n">
+        <v>170086.6</v>
+      </c>
+      <c r="H4" t="n">
+        <v>16562.8</v>
+      </c>
+      <c r="I4" t="n">
+        <v>123199.9</v>
+      </c>
+      <c r="J4" t="n">
+        <v>11362.5</v>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>9382.6</v>
+      </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
+      <c r="O4" t="n">
+        <v>57559.8</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3955</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>8208.200000000001</v>
+      </c>
       <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
+      <c r="S4" t="n">
+        <v>1652.6</v>
+      </c>
+      <c r="T4" t="n">
+        <v>4245.5</v>
+      </c>
+      <c r="U4" t="n">
+        <v>53713</v>
+      </c>
+      <c r="V4" t="n">
+        <v>811.3</v>
+      </c>
+      <c r="W4" t="n">
+        <v>26873.1</v>
+      </c>
+      <c r="X4" t="n">
+        <v>255835</v>
+      </c>
       <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
+      <c r="Z4" t="n">
+        <v>13993.1</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>25487.2</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>53288.7</v>
+      </c>
       <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
+      <c r="AD4" t="n">
+        <v>390976.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>191916.3</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>20556.7</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>79314.7</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>73646.2</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>3131</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>27389.2</v>
+      </c>
       <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="inlineStr"/>
-      <c r="AM4" t="inlineStr"/>
+      <c r="AL4" t="n">
+        <v>107190</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>2725.4</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>146529.3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>220087.3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>61605.2</v>
-      </c>
+        <v>173744.5</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>1939074.7</v>
+        <v>2641578.1</v>
       </c>
       <c r="F5" t="n">
-        <v>25154</v>
+        <v>42985.3</v>
       </c>
       <c r="G5" t="n">
-        <v>132035.9</v>
+        <v>182050.8</v>
       </c>
       <c r="H5" t="n">
-        <v>14445.4</v>
+        <v>17836.1</v>
       </c>
       <c r="I5" t="n">
-        <v>93466.8</v>
+        <v>133901.5</v>
       </c>
       <c r="J5" t="n">
-        <v>8156</v>
-      </c>
-      <c r="K5" t="n">
-        <v>28476.9</v>
-      </c>
+        <v>12267.3</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>4960.1</v>
-      </c>
-      <c r="M5" t="n">
-        <v>12360.4</v>
-      </c>
-      <c r="N5" t="n">
-        <v>7862.5</v>
-      </c>
+        <v>11327.4</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>44745.5</v>
+        <v>59275.7</v>
       </c>
       <c r="P5" t="n">
-        <v>3147.5</v>
+        <v>3997.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>4633.8</v>
-      </c>
-      <c r="R5" t="n">
-        <v>18188.9</v>
-      </c>
+        <v>10122</v>
+      </c>
+      <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>1163.4</v>
+        <v>1874.3</v>
       </c>
       <c r="T5" t="n">
-        <v>3483.2</v>
+        <v>3657.3</v>
       </c>
       <c r="U5" t="n">
-        <v>50763.3</v>
+        <v>53027.7</v>
       </c>
       <c r="V5" t="n">
-        <v>442.4</v>
+        <v>1795</v>
       </c>
       <c r="W5" t="n">
-        <v>21344.4</v>
+        <v>21236</v>
       </c>
       <c r="X5" t="n">
-        <v>205275.2</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>7960.1</v>
-      </c>
+        <v>274935.5</v>
+      </c>
+      <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="n">
-        <v>13638.3</v>
+        <v>16553.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>32371.8</v>
+        <v>28445.9</v>
       </c>
       <c r="AB5" t="n">
-        <v>50862.6</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>17247.5</v>
-      </c>
+        <v>56858.5</v>
+      </c>
+      <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="n">
-        <v>318017.5</v>
+        <v>411861</v>
       </c>
       <c r="AE5" t="n">
-        <v>154694.2</v>
+        <v>213178</v>
       </c>
       <c r="AF5" t="n">
-        <v>15257.8</v>
+        <v>22602.3</v>
       </c>
       <c r="AG5" t="n">
-        <v>40167.3</v>
+        <v>85223.10000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>53107.1</v>
+        <v>80459.10000000001</v>
       </c>
       <c r="AI5" t="n">
-        <v>3404.8</v>
+        <v>3864.6</v>
       </c>
       <c r="AJ5" t="n">
-        <v>19563.5</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>20013.1</v>
-      </c>
+        <v>28768.6</v>
+      </c>
+      <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
-        <v>81787.89999999999</v>
+        <v>114220.2</v>
       </c>
       <c r="AM5" t="n">
-        <v>1942.3</v>
+        <v>2840.9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>156516.4</v>
+        <v>170104</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>2246179</v>
+        <v>2638290</v>
       </c>
       <c r="F6" t="n">
-        <v>30426</v>
+        <v>43933</v>
       </c>
       <c r="G6" t="n">
-        <v>150192.2</v>
+        <v>183489</v>
       </c>
       <c r="H6" t="n">
-        <v>14805.5</v>
+        <v>18912</v>
       </c>
       <c r="I6" t="n">
-        <v>106684.7</v>
+        <v>128589</v>
       </c>
       <c r="J6" t="n">
-        <v>9363.799999999999</v>
+        <v>13242</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>7599.3</v>
+        <v>11728</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
-        <v>55168.6</v>
+        <v>61883</v>
       </c>
       <c r="P6" t="n">
-        <v>3686.5</v>
+        <v>3833</v>
       </c>
       <c r="Q6" t="n">
-        <v>6765.3</v>
+        <v>12270</v>
       </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>2045.4</v>
+        <v>1871</v>
       </c>
       <c r="T6" t="n">
-        <v>4125.8</v>
+        <v>3878</v>
       </c>
       <c r="U6" t="n">
-        <v>46917</v>
+        <v>43819</v>
       </c>
       <c r="V6" t="n">
-        <v>566.8</v>
+        <v>1566</v>
       </c>
       <c r="W6" t="n">
-        <v>25338.7</v>
+        <v>20683</v>
       </c>
       <c r="X6" t="n">
-        <v>225982.8</v>
+        <v>270363</v>
       </c>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="n">
-        <v>15550.1</v>
+        <v>15859</v>
       </c>
       <c r="AA6" t="n">
-        <v>24027.3</v>
+        <v>23040</v>
       </c>
       <c r="AB6" t="n">
-        <v>48352.6</v>
+        <v>61758</v>
       </c>
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="n">
-        <v>380497.3</v>
+        <v>426583</v>
       </c>
       <c r="AE6" t="n">
-        <v>173046.2</v>
+        <v>205657</v>
       </c>
       <c r="AF6" t="n">
-        <v>17970.4</v>
+        <v>23478</v>
       </c>
       <c r="AG6" t="n">
-        <v>65665.39999999999</v>
+        <v>88580</v>
       </c>
       <c r="AH6" t="n">
-        <v>59216</v>
+        <v>79031</v>
       </c>
       <c r="AI6" t="n">
-        <v>2791</v>
+        <v>2946</v>
       </c>
       <c r="AJ6" t="n">
-        <v>23470.7</v>
+        <v>31589</v>
       </c>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
-        <v>100752.9</v>
+        <v>95674</v>
       </c>
       <c r="AM6" t="n">
-        <v>2270.3</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>178461.3</v>
+        <v>174306</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>2493957.7</v>
+        <v>2702489.2</v>
       </c>
       <c r="F7" t="n">
-        <v>38161.8</v>
+        <v>49335</v>
       </c>
       <c r="G7" t="n">
-        <v>170086.6</v>
+        <v>178870</v>
       </c>
       <c r="H7" t="n">
-        <v>16562.8</v>
+        <v>17706</v>
       </c>
       <c r="I7" t="n">
-        <v>123199.9</v>
+        <v>130570</v>
       </c>
       <c r="J7" t="n">
-        <v>11362.5</v>
+        <v>16021</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>9382.6</v>
+        <v>14878</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="n">
-        <v>57559.8</v>
+        <v>65324</v>
       </c>
       <c r="P7" t="n">
-        <v>3955</v>
+        <v>4631</v>
       </c>
       <c r="Q7" t="n">
-        <v>8208.200000000001</v>
+        <v>13503</v>
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>1652.6</v>
+        <v>2317</v>
       </c>
       <c r="T7" t="n">
-        <v>4245.5</v>
+        <v>4713</v>
       </c>
       <c r="U7" t="n">
-        <v>53713</v>
+        <v>40193</v>
       </c>
       <c r="V7" t="n">
-        <v>811.3</v>
+        <v>2201</v>
       </c>
       <c r="W7" t="n">
-        <v>26873.1</v>
+        <v>22366</v>
       </c>
       <c r="X7" t="n">
-        <v>255835</v>
+        <v>279364</v>
       </c>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="n">
-        <v>13993.1</v>
+        <v>14196</v>
       </c>
       <c r="AA7" t="n">
-        <v>25487.2</v>
+        <v>24483</v>
       </c>
       <c r="AB7" t="n">
-        <v>53288.7</v>
+        <v>63636</v>
       </c>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="n">
-        <v>390976.5</v>
+        <v>430794</v>
       </c>
       <c r="AE7" t="n">
-        <v>191916.3</v>
+        <v>208614</v>
       </c>
       <c r="AF7" t="n">
-        <v>20556.7</v>
+        <v>24222</v>
       </c>
       <c r="AG7" t="n">
-        <v>79314.7</v>
+        <v>94759</v>
       </c>
       <c r="AH7" t="n">
-        <v>73646.2</v>
+        <v>84337</v>
       </c>
       <c r="AI7" t="n">
-        <v>3131</v>
+        <v>3314</v>
       </c>
       <c r="AJ7" t="n">
-        <v>27389.2</v>
+        <v>33886</v>
       </c>
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="n">
-        <v>107190</v>
+        <v>91291</v>
       </c>
       <c r="AM7" t="n">
-        <v>2725.4</v>
+        <v>3296</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>173744.5</v>
+        <v>177067</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>2641578.1</v>
+        <v>2736244</v>
       </c>
       <c r="F8" t="n">
-        <v>42985.3</v>
+        <v>51693</v>
       </c>
       <c r="G8" t="n">
-        <v>182050.8</v>
+        <v>168484</v>
       </c>
       <c r="H8" t="n">
-        <v>17836.1</v>
+        <v>19391</v>
       </c>
       <c r="I8" t="n">
-        <v>133901.5</v>
+        <v>121517</v>
       </c>
       <c r="J8" t="n">
-        <v>12267.3</v>
+        <v>18384</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>11327.4</v>
+        <v>19648</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="n">
-        <v>59275.7</v>
+        <v>63952</v>
       </c>
       <c r="P8" t="n">
-        <v>3997.7</v>
+        <v>4420</v>
       </c>
       <c r="Q8" t="n">
-        <v>10122</v>
+        <v>14684</v>
       </c>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>1874.3</v>
+        <v>2415</v>
       </c>
       <c r="T8" t="n">
-        <v>3657.3</v>
+        <v>3960</v>
       </c>
       <c r="U8" t="n">
-        <v>53027.7</v>
+        <v>41987</v>
       </c>
       <c r="V8" t="n">
-        <v>1795</v>
+        <v>2801</v>
       </c>
       <c r="W8" t="n">
-        <v>21236</v>
+        <v>18875</v>
       </c>
       <c r="X8" t="n">
-        <v>274935.5</v>
+        <v>285025</v>
       </c>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="n">
-        <v>16553.5</v>
+        <v>12944</v>
       </c>
       <c r="AA8" t="n">
-        <v>28445.9</v>
+        <v>21463</v>
       </c>
       <c r="AB8" t="n">
-        <v>56858.5</v>
+        <v>64955</v>
       </c>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="n">
-        <v>411861</v>
+        <v>457960</v>
       </c>
       <c r="AE8" t="n">
-        <v>213178</v>
+        <v>199775</v>
       </c>
       <c r="AF8" t="n">
-        <v>22602.3</v>
+        <v>24826</v>
       </c>
       <c r="AG8" t="n">
-        <v>85223.10000000001</v>
+        <v>97733</v>
       </c>
       <c r="AH8" t="n">
-        <v>80459.10000000001</v>
+        <v>91975</v>
       </c>
       <c r="AI8" t="n">
-        <v>3864.6</v>
+        <v>3255</v>
       </c>
       <c r="AJ8" t="n">
-        <v>28768.6</v>
+        <v>32381</v>
       </c>
       <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="n">
-        <v>114220.2</v>
+        <v>92831</v>
       </c>
       <c r="AM8" t="n">
-        <v>2840.9</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>170104</v>
+        <v>194430</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>2638290</v>
+        <v>2981234</v>
       </c>
       <c r="F9" t="n">
-        <v>43933</v>
+        <v>50917</v>
       </c>
       <c r="G9" t="n">
-        <v>183489</v>
+        <v>168331</v>
       </c>
       <c r="H9" t="n">
-        <v>18912</v>
+        <v>19528</v>
       </c>
       <c r="I9" t="n">
-        <v>128589</v>
+        <v>125919</v>
       </c>
       <c r="J9" t="n">
-        <v>13242</v>
+        <v>22078</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>11728</v>
+        <v>25473</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>61883</v>
+        <v>64107</v>
       </c>
       <c r="P9" t="n">
-        <v>3833</v>
+        <v>5206</v>
       </c>
       <c r="Q9" t="n">
-        <v>12270</v>
+        <v>14398</v>
       </c>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>1871</v>
+        <v>2510</v>
       </c>
       <c r="T9" t="n">
-        <v>3878</v>
+        <v>4829</v>
       </c>
       <c r="U9" t="n">
-        <v>43819</v>
+        <v>33477</v>
       </c>
       <c r="V9" t="n">
-        <v>1566</v>
+        <v>3351</v>
       </c>
       <c r="W9" t="n">
-        <v>20683</v>
+        <v>18277</v>
       </c>
       <c r="X9" t="n">
-        <v>270363</v>
+        <v>306281</v>
       </c>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="n">
-        <v>15859</v>
+        <v>13969</v>
       </c>
       <c r="AA9" t="n">
-        <v>23040</v>
+        <v>13818</v>
       </c>
       <c r="AB9" t="n">
-        <v>61758</v>
+        <v>74347</v>
       </c>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="n">
-        <v>426583</v>
+        <v>552618</v>
       </c>
       <c r="AE9" t="n">
-        <v>205657</v>
+        <v>218175</v>
       </c>
       <c r="AF9" t="n">
-        <v>23478</v>
+        <v>32895</v>
       </c>
       <c r="AG9" t="n">
-        <v>88580</v>
+        <v>117850</v>
       </c>
       <c r="AH9" t="n">
-        <v>79031</v>
+        <v>104704</v>
       </c>
       <c r="AI9" t="n">
-        <v>2946</v>
+        <v>3495</v>
       </c>
       <c r="AJ9" t="n">
-        <v>31589</v>
+        <v>39454</v>
       </c>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
-        <v>95674</v>
+        <v>78600</v>
       </c>
       <c r="AM9" t="n">
-        <v>3404</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>174306</v>
+        <v>212802</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>2702489.2</v>
+        <v>3151828</v>
       </c>
       <c r="F10" t="n">
-        <v>49335</v>
+        <v>52292</v>
       </c>
       <c r="G10" t="n">
-        <v>178870</v>
+        <v>164749</v>
       </c>
       <c r="H10" t="n">
-        <v>17706</v>
+        <v>21565</v>
       </c>
       <c r="I10" t="n">
-        <v>130570</v>
+        <v>122720</v>
       </c>
       <c r="J10" t="n">
-        <v>16021</v>
+        <v>26651</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>14878</v>
+        <v>30023</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
-        <v>65324</v>
+        <v>68701</v>
       </c>
       <c r="P10" t="n">
-        <v>4631</v>
+        <v>5689</v>
       </c>
       <c r="Q10" t="n">
-        <v>13503</v>
+        <v>17029</v>
       </c>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>2317</v>
+        <v>3640</v>
       </c>
       <c r="T10" t="n">
-        <v>4713</v>
+        <v>4256</v>
       </c>
       <c r="U10" t="n">
-        <v>40193</v>
+        <v>33947</v>
       </c>
       <c r="V10" t="n">
-        <v>2201</v>
+        <v>5123</v>
       </c>
       <c r="W10" t="n">
-        <v>22366</v>
+        <v>23762</v>
       </c>
       <c r="X10" t="n">
-        <v>279364</v>
+        <v>327690</v>
       </c>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="n">
-        <v>14196</v>
+        <v>15422</v>
       </c>
       <c r="AA10" t="n">
-        <v>24483</v>
+        <v>15512</v>
       </c>
       <c r="AB10" t="n">
-        <v>63636</v>
+        <v>91364</v>
       </c>
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="n">
-        <v>430794</v>
+        <v>543781</v>
       </c>
       <c r="AE10" t="n">
-        <v>208614</v>
+        <v>240908</v>
       </c>
       <c r="AF10" t="n">
-        <v>24222</v>
+        <v>33001</v>
       </c>
       <c r="AG10" t="n">
-        <v>94759</v>
+        <v>134219</v>
       </c>
       <c r="AH10" t="n">
-        <v>84337</v>
+        <v>122263</v>
       </c>
       <c r="AI10" t="n">
-        <v>3314</v>
+        <v>4498</v>
       </c>
       <c r="AJ10" t="n">
-        <v>33886</v>
+        <v>40227</v>
       </c>
       <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="n">
-        <v>91291</v>
+        <v>85657</v>
       </c>
       <c r="AM10" t="n">
-        <v>3296</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177067</v>
+        <v>224470</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>2736244</v>
+        <v>3460409</v>
       </c>
       <c r="F11" t="n">
-        <v>51693</v>
+        <v>58096</v>
       </c>
       <c r="G11" t="n">
-        <v>168484</v>
+        <v>181332</v>
       </c>
       <c r="H11" t="n">
-        <v>19391</v>
+        <v>24323</v>
       </c>
       <c r="I11" t="n">
-        <v>121517</v>
+        <v>134291</v>
       </c>
       <c r="J11" t="n">
-        <v>18384</v>
+        <v>29758</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>19648</v>
+        <v>34421</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
-        <v>63952</v>
+        <v>72727</v>
       </c>
       <c r="P11" t="n">
-        <v>4420</v>
+        <v>5938</v>
       </c>
       <c r="Q11" t="n">
-        <v>14684</v>
+        <v>16906</v>
       </c>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
-        <v>2415</v>
+        <v>4783</v>
       </c>
       <c r="T11" t="n">
-        <v>3960</v>
+        <v>3712</v>
       </c>
       <c r="U11" t="n">
-        <v>41987</v>
+        <v>36106</v>
       </c>
       <c r="V11" t="n">
-        <v>2801</v>
+        <v>4901</v>
       </c>
       <c r="W11" t="n">
-        <v>18875</v>
+        <v>25371</v>
       </c>
       <c r="X11" t="n">
-        <v>285025</v>
+        <v>346108</v>
       </c>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="n">
-        <v>12944</v>
+        <v>19970</v>
       </c>
       <c r="AA11" t="n">
-        <v>21463</v>
+        <v>13565</v>
       </c>
       <c r="AB11" t="n">
-        <v>64955</v>
+        <v>99543</v>
       </c>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="n">
-        <v>457960</v>
+        <v>632970</v>
       </c>
       <c r="AE11" t="n">
-        <v>199775</v>
+        <v>263754</v>
       </c>
       <c r="AF11" t="n">
-        <v>24826</v>
+        <v>37720</v>
       </c>
       <c r="AG11" t="n">
-        <v>97733</v>
+        <v>151006</v>
       </c>
       <c r="AH11" t="n">
-        <v>91975</v>
+        <v>144019</v>
       </c>
       <c r="AI11" t="n">
-        <v>3255</v>
+        <v>4559</v>
       </c>
       <c r="AJ11" t="n">
-        <v>32381</v>
+        <v>46928</v>
       </c>
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="n">
-        <v>92831</v>
+        <v>87159</v>
       </c>
       <c r="AM11" t="n">
-        <v>2236</v>
+        <v>3208</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>194430</v>
+        <v>250408</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>2981234</v>
+        <v>3826651</v>
       </c>
       <c r="F12" t="n">
-        <v>50917</v>
+        <v>65454</v>
       </c>
       <c r="G12" t="n">
-        <v>168331</v>
+        <v>200470</v>
       </c>
       <c r="H12" t="n">
-        <v>19528</v>
+        <v>26413</v>
       </c>
       <c r="I12" t="n">
-        <v>125919</v>
+        <v>154596</v>
       </c>
       <c r="J12" t="n">
-        <v>22078</v>
+        <v>29472</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>25473</v>
+        <v>36626</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
-        <v>64107</v>
+        <v>79397</v>
       </c>
       <c r="P12" t="n">
-        <v>5206</v>
+        <v>7042</v>
       </c>
       <c r="Q12" t="n">
-        <v>14398</v>
+        <v>22177</v>
       </c>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
-        <v>2510</v>
+        <v>5367</v>
       </c>
       <c r="T12" t="n">
-        <v>4829</v>
+        <v>3597</v>
       </c>
       <c r="U12" t="n">
-        <v>33477</v>
+        <v>37372</v>
       </c>
       <c r="V12" t="n">
-        <v>3351</v>
+        <v>5085</v>
       </c>
       <c r="W12" t="n">
-        <v>18277</v>
+        <v>30396</v>
       </c>
       <c r="X12" t="n">
-        <v>306281</v>
+        <v>377165</v>
       </c>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="n">
-        <v>13969</v>
+        <v>23418</v>
       </c>
       <c r="AA12" t="n">
-        <v>13818</v>
+        <v>16650</v>
       </c>
       <c r="AB12" t="n">
-        <v>74347</v>
+        <v>107400</v>
       </c>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="n">
-        <v>552618</v>
+        <v>712827</v>
       </c>
       <c r="AE12" t="n">
-        <v>218175</v>
+        <v>291787</v>
       </c>
       <c r="AF12" t="n">
-        <v>32895</v>
+        <v>38581</v>
       </c>
       <c r="AG12" t="n">
-        <v>117850</v>
+        <v>172474</v>
       </c>
       <c r="AH12" t="n">
-        <v>104704</v>
+        <v>171493</v>
       </c>
       <c r="AI12" t="n">
-        <v>3495</v>
+        <v>6172</v>
       </c>
       <c r="AJ12" t="n">
-        <v>39454</v>
+        <v>51406</v>
       </c>
       <c r="AK12" t="inlineStr"/>
       <c r="AL12" t="n">
-        <v>78600</v>
+        <v>92522</v>
       </c>
       <c r="AM12" t="n">
-        <v>2425</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>212802</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="n">
-        <v>3151828</v>
-      </c>
-      <c r="F13" t="n">
-        <v>52292</v>
-      </c>
-      <c r="G13" t="n">
-        <v>164749</v>
-      </c>
-      <c r="H13" t="n">
-        <v>21565</v>
-      </c>
-      <c r="I13" t="n">
-        <v>122720</v>
-      </c>
-      <c r="J13" t="n">
-        <v>26651</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>30023</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="n">
-        <v>68701</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5689</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>17029</v>
-      </c>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
-        <v>3640</v>
-      </c>
-      <c r="T13" t="n">
-        <v>4256</v>
-      </c>
-      <c r="U13" t="n">
-        <v>33947</v>
-      </c>
-      <c r="V13" t="n">
-        <v>5123</v>
-      </c>
-      <c r="W13" t="n">
-        <v>23762</v>
-      </c>
-      <c r="X13" t="n">
-        <v>327690</v>
-      </c>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="n">
-        <v>15422</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>15512</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>91364</v>
-      </c>
-      <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="n">
-        <v>543781</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>240908</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>33001</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>134219</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>122263</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>4498</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>40227</v>
-      </c>
-      <c r="AK13" t="inlineStr"/>
-      <c r="AL13" t="n">
-        <v>85657</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>3047</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>224470</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>3460409</v>
-      </c>
-      <c r="F14" t="n">
-        <v>58096</v>
-      </c>
-      <c r="G14" t="n">
-        <v>181332</v>
-      </c>
-      <c r="H14" t="n">
-        <v>24323</v>
-      </c>
-      <c r="I14" t="n">
-        <v>134291</v>
-      </c>
-      <c r="J14" t="n">
-        <v>29758</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>34421</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="n">
-        <v>72727</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5938</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>16906</v>
-      </c>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
-        <v>4783</v>
-      </c>
-      <c r="T14" t="n">
-        <v>3712</v>
-      </c>
-      <c r="U14" t="n">
-        <v>36106</v>
-      </c>
-      <c r="V14" t="n">
-        <v>4901</v>
-      </c>
-      <c r="W14" t="n">
-        <v>25371</v>
-      </c>
-      <c r="X14" t="n">
-        <v>346108</v>
-      </c>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="n">
-        <v>19970</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>13565</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>99543</v>
-      </c>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="n">
-        <v>632970</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>263754</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>37720</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>151006</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>144019</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>4559</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>46928</v>
-      </c>
-      <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="n">
-        <v>87159</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>3208</v>
+        <v>4511</v>
       </c>
     </row>
   </sheetData>
